--- a/D-V1.xlsx
+++ b/D-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tapanrajpurohit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97144AC-9261-9942-B5C0-31CE7EDCB4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A95887A-5CD2-1F4C-9770-B145C5EDE8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{958A9DD4-F4DF-6346-B040-010A9E2DC2FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Client Name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Peak Hour Consumption (6-8 AM and 6-10 PM)</t>
+  </si>
+  <si>
+    <t>Installed Solar AC Capacity</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,10 +537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA331F8-4040-1343-B690-3C119072FFC7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,20 +551,21 @@
     <col min="4" max="4" width="25.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20" style="5" customWidth="1"/>
-    <col min="14" max="15" width="24.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="21.5" style="5" customWidth="1"/>
-    <col min="17" max="19" width="24.33203125" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="18.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="20" style="5" customWidth="1"/>
+    <col min="15" max="16" width="24.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="5" customWidth="1"/>
+    <col min="18" max="20" width="24.33203125" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34">
+    <row r="1" spans="1:20" ht="34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,43 +584,46 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="4"/>
       <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -633,52 +643,55 @@
         <f>C2*E2*24*365</f>
         <v>5923950</v>
       </c>
-      <c r="G2" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I2" s="8">
         <f>IF(B2=11,17.6%,IF(B2=33,8.8%,5%))</f>
         <v>0.17600000000000002</v>
       </c>
-      <c r="I2" s="11">
-        <f>G2*1600000*(1-H2)</f>
-        <v>5141760</v>
-      </c>
-      <c r="J2" s="8">
-        <f>I2/F2</f>
-        <v>0.86796141088294132</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="J2" s="11">
+        <f>H2*1600000*(1-I2)</f>
+        <v>4614400</v>
+      </c>
+      <c r="K2" s="8">
+        <f>J2/F2</f>
+        <v>0.77893972771546016</v>
+      </c>
+      <c r="L2" s="10">
         <v>7.3</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <f>IF(E2&gt;=40%,1,0)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="10">
-        <f>K3+0.54+0.1-L2-IF(B2=11,0,0.2)</f>
+      <c r="N2" s="10">
+        <f>L3+0.54+0.1-M2-IF(B2=11,0,0.2)</f>
         <v>7.9399999999999995</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <f>91826/454410</f>
         <v>0.20207741907088311</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <f>36072/454410</f>
         <v>7.9382055852644087E-2</v>
       </c>
-      <c r="P2" s="11">
-        <f>(N2+O2)*F2</f>
+      <c r="Q2" s="11">
+        <f>(O2+P2)*F2</f>
         <v>1667351.8564732289</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="R2" s="11">
         <f>F2*4/24</f>
         <v>987325</v>
       </c>
-      <c r="R2" s="10"/>
       <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -698,51 +711,54 @@
         <f>C3*E3*24*365</f>
         <v>287717119.19999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="H3" s="9">
         <v>16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <f>IF(B3=11,17.6%,IF(B3=33,8.8%,5%))</f>
         <v>0.05</v>
       </c>
-      <c r="I3" s="11">
-        <f>G3*1600000*(1-H3)</f>
+      <c r="J3" s="11">
+        <f>H3*1600000*(1-I3)</f>
         <v>24320000</v>
       </c>
-      <c r="J3" s="8">
-        <f>I3/F3</f>
+      <c r="K3" s="8">
+        <f>J3/F3</f>
         <v>8.4527469438113303E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>7.3</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <f>IF(E3&gt;=40%,1,0)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="10">
-        <f>K3+0.54+0.1-L3-IF(B3=11,0,0.2)</f>
+      <c r="N3" s="10">
+        <f>L3+0.54+0.1-M3-IF(B3=11,0,0.2)</f>
         <v>6.7399999999999993</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>0.16750000000000001</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="P3" s="11">
-        <f>(N3+O3)*F3</f>
+      <c r="Q3" s="11">
+        <f>(O3+P3)*F3</f>
         <v>73051376.564879999</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <f>F3*4/24</f>
         <v>47952853.199999996</v>
       </c>
-      <c r="R3" s="11"/>
       <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="O11" s="8"/>
+    <row r="11" spans="1:20">
+      <c r="P11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/D-V1.xlsx
+++ b/D-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tapanrajpurohit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A95887A-5CD2-1F4C-9770-B145C5EDE8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D5F985-41FB-7D4D-8592-A1FCE61309CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{958A9DD4-F4DF-6346-B040-010A9E2DC2FA}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>Peak Hour Consumption (6-8 AM and 6-10 PM)</t>
   </si>
   <si>
-    <t>Installed Solar AC Capacity</t>
+    <t>Installed Solar Capacity (AC)</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
